--- a/teste_files/viva_jan01.xlsx
+++ b/teste_files/viva_jan01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuno - W10\Documents\Piaget\Eng. Soft. II\python\teste_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0DD68C2-36C4-41BF-B5B6-A75A33F8C6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F62602E-3698-4DE8-A408-8B831660664D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1576510B-4FF0-4C83-A26B-D67CEE25268E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20424" windowHeight="11364" xr2:uid="{1576510B-4FF0-4C83-A26B-D67CEE25268E}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Título Carregado</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Data Carregamento</t>
   </si>
   <si>
-    <t>               </t>
-  </si>
-  <si>
     <t>Validade</t>
   </si>
   <si>
@@ -81,16 +78,109 @@
   </si>
   <si>
     <t>Nome Completo do Utilizador</t>
+  </si>
+  <si>
+    <t>Feijó</t>
+  </si>
+  <si>
+    <t>PESSOA 22</t>
+  </si>
+  <si>
+    <t>Laranjeiro</t>
+  </si>
+  <si>
+    <t>PESSOA 69</t>
+  </si>
+  <si>
+    <t>PESSOA 30</t>
+  </si>
+  <si>
+    <t>PESSOA 49</t>
+  </si>
+  <si>
+    <t>PESSOA 102</t>
+  </si>
+  <si>
+    <t>PESSOA 148</t>
+  </si>
+  <si>
+    <t>PESSOA 155</t>
+  </si>
+  <si>
+    <t>PESSOA 207</t>
+  </si>
+  <si>
+    <t>PESSOA 263</t>
+  </si>
+  <si>
+    <t>PESSOA 264</t>
+  </si>
+  <si>
+    <t>Lisboa VIVA</t>
+  </si>
+  <si>
+    <t>A2505TB</t>
+  </si>
+  <si>
+    <t>A1665TB</t>
+  </si>
+  <si>
+    <t>A1196TB</t>
+  </si>
+  <si>
+    <t>A2717TB</t>
+  </si>
+  <si>
+    <t>A1107TB</t>
+  </si>
+  <si>
+    <t>A2154TB</t>
+  </si>
+  <si>
+    <t>A2504TB</t>
+  </si>
+  <si>
+    <t>A2452TB</t>
+  </si>
+  <si>
+    <t>A1867TB</t>
+  </si>
+  <si>
+    <t>A2140TB</t>
+  </si>
+  <si>
+    <t>Lisboa</t>
+  </si>
+  <si>
+    <t>Setúbal</t>
+  </si>
+  <si>
+    <t>Almada</t>
+  </si>
+  <si>
+    <t>Corroios</t>
+  </si>
+  <si>
+    <t>Pragal</t>
+  </si>
+  <si>
+    <t>Fogueteiro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,8 +206,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,15 +526,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F847C9-8151-45D2-B783-3BB804E416B2}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,42 +563,358 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45293</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45322</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>148961142</v>
+      </c>
+      <c r="I2">
+        <v>196678564</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45294</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45322</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>165576162</v>
+      </c>
+      <c r="I3">
+        <v>968315354</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45294</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45322</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>101430310</v>
+      </c>
+      <c r="I4">
+        <v>306062018</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45295</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45322</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>106968823</v>
+      </c>
+      <c r="I5">
+        <v>264503937</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45296</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45322</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>106900129</v>
+      </c>
+      <c r="I6">
+        <v>799467644</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45296</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45322</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>141280840</v>
+      </c>
+      <c r="I7">
+        <v>342058512</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45297</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45322</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>101864159</v>
+      </c>
+      <c r="I8">
+        <v>131768960</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45298</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45322</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>105901350</v>
+      </c>
+      <c r="I9">
+        <v>539261003</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45298</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45322</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>120481383</v>
+      </c>
+      <c r="I10">
+        <v>735020837</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45299</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45322</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>118548840</v>
+      </c>
+      <c r="I11">
+        <v>496023585</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>